--- a/Crosswalk/B4_UDS4_programmatic_crosswalk.xlsx
+++ b/Crosswalk/B4_UDS4_programmatic_crosswalk.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cfmurch\Downloads\updated_crosswalks\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UAB Neurology\NACC and UDS\Json_SOPS\Crosswalk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1735,9 +1735,6 @@
   </si>
   <si>
     <t>6. Personal Care</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;7. CDR Sum of Boxes&lt;/p&gt;</t>
   </si>
   <si>
     <t>&lt;div class="rich-text-field-label"&gt;&lt;p&gt;Manual Data Entry of Calculated Global CDR&lt;/p&gt;&lt;/div&gt;</t>
@@ -2894,6 +2891,9 @@
   </si>
   <si>
     <t>DECISIONS MUST BE MADE FOR:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;p&gt;7. CDR Sum of Boxes&lt;/p&gt; </t>
   </si>
 </sst>
 </file>
@@ -3389,13 +3389,34 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3421,27 +3442,6 @@
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3828,21 +3828,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="59" t="s">
         <v>496</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="E1" s="50" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="E1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="50"/>
-      <c r="G1" s="50"/>
-      <c r="I1" s="50" t="s">
+      <c r="F1" s="60"/>
+      <c r="G1" s="60"/>
+      <c r="I1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -3874,38 +3874,38 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="58" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="29" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D3" s="30"/>
-      <c r="E3" s="51" t="s">
+      <c r="E3" s="58" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="28" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="29" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="H3" s="30"/>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="58" t="s">
         <v>5</v>
       </c>
       <c r="J3" s="28" t="s">
         <v>7</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="117.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
+      <c r="A4" s="58"/>
       <c r="B4" s="31" t="s">
         <v>8</v>
       </c>
@@ -3913,7 +3913,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="30"/>
-      <c r="E4" s="51"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="31" t="s">
         <v>8</v>
       </c>
@@ -3921,7 +3921,7 @@
         <v>9</v>
       </c>
       <c r="H4" s="30"/>
-      <c r="I4" s="51"/>
+      <c r="I4" s="58"/>
       <c r="J4" s="31" t="s">
         <v>10</v>
       </c>
@@ -3930,8 +3930,8 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="51" t="s">
-        <v>524</v>
+      <c r="A5" s="58" t="s">
+        <v>523</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>12</v>
@@ -3940,8 +3940,8 @@
         <v>13</v>
       </c>
       <c r="D5" s="30"/>
-      <c r="E5" s="51" t="s">
-        <v>524</v>
+      <c r="E5" s="58" t="s">
+        <v>523</v>
       </c>
       <c r="F5" s="28" t="s">
         <v>12</v>
@@ -3950,8 +3950,8 @@
         <v>13</v>
       </c>
       <c r="H5" s="30"/>
-      <c r="I5" s="51" t="s">
-        <v>524</v>
+      <c r="I5" s="58" t="s">
+        <v>523</v>
       </c>
       <c r="J5" s="28" t="s">
         <v>14</v>
@@ -3961,57 +3961,57 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
+      <c r="A6" s="58"/>
       <c r="B6" s="33" t="s">
         <v>16</v>
       </c>
       <c r="C6" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="D6" s="30"/>
-      <c r="E6" s="51"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="33" t="s">
         <v>16</v>
       </c>
       <c r="G6" s="34" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="H6" s="30"/>
-      <c r="I6" s="51"/>
+      <c r="I6" s="58"/>
       <c r="J6" s="33" t="s">
         <v>17</v>
       </c>
       <c r="K6" s="34" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="51"/>
+      <c r="A7" s="58"/>
       <c r="B7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="36" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="D7" s="30"/>
-      <c r="E7" s="51"/>
+      <c r="E7" s="58"/>
       <c r="F7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="H7" s="30"/>
-      <c r="I7" s="51"/>
+      <c r="I7" s="58"/>
       <c r="J7" s="35" t="s">
         <v>18</v>
       </c>
       <c r="K7" s="36" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
+      <c r="A8" s="58"/>
       <c r="B8" s="33" t="s">
         <v>19</v>
       </c>
@@ -4019,7 +4019,7 @@
         <v>20</v>
       </c>
       <c r="D8" s="30"/>
-      <c r="E8" s="51"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="33" t="s">
         <v>19</v>
       </c>
@@ -4027,7 +4027,7 @@
         <v>21</v>
       </c>
       <c r="H8" s="30"/>
-      <c r="I8" s="51"/>
+      <c r="I8" s="58"/>
       <c r="J8" s="33" t="s">
         <v>19</v>
       </c>
@@ -4036,32 +4036,32 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="51"/>
+      <c r="A9" s="58"/>
       <c r="B9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="36" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D9" s="30"/>
-      <c r="E9" s="51"/>
+      <c r="E9" s="58"/>
       <c r="F9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="H9" s="30"/>
-      <c r="I9" s="51"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="35" t="s">
         <v>23</v>
       </c>
       <c r="K9" s="36" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
+      <c r="A10" s="58"/>
       <c r="B10" s="33" t="s">
         <v>24</v>
       </c>
@@ -4069,24 +4069,24 @@
         <v>25</v>
       </c>
       <c r="D10" s="30"/>
-      <c r="E10" s="51"/>
+      <c r="E10" s="58"/>
       <c r="F10" s="33" t="s">
         <v>24</v>
       </c>
       <c r="G10" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="H10" s="30"/>
-      <c r="I10" s="51"/>
+      <c r="I10" s="58"/>
       <c r="J10" s="33" t="s">
         <v>24</v>
       </c>
       <c r="K10" s="34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="51"/>
+      <c r="A11" s="58"/>
       <c r="B11" s="35" t="s">
         <v>26</v>
       </c>
@@ -4094,7 +4094,7 @@
         <v>27</v>
       </c>
       <c r="D11" s="30"/>
-      <c r="E11" s="51"/>
+      <c r="E11" s="58"/>
       <c r="F11" s="35" t="s">
         <v>26</v>
       </c>
@@ -4102,7 +4102,7 @@
         <v>27</v>
       </c>
       <c r="H11" s="30"/>
-      <c r="I11" s="51"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="35" t="s">
         <v>26</v>
       </c>
@@ -4111,83 +4111,83 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="51"/>
+      <c r="A12" s="58"/>
       <c r="B12" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="C12" s="34" t="s">
         <v>532</v>
       </c>
-      <c r="C12" s="34" t="s">
+      <c r="D12" s="30"/>
+      <c r="E12" s="58"/>
+      <c r="F12" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>532</v>
+      </c>
+      <c r="H12" s="30"/>
+      <c r="I12" s="58"/>
+      <c r="J12" s="33" t="s">
+        <v>531</v>
+      </c>
+      <c r="K12" s="34" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="58"/>
+      <c r="B13" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="G12" s="34" t="s">
+      <c r="C13" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="D13" s="30"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="35" t="s">
         <v>533</v>
       </c>
-      <c r="H12" s="30"/>
-      <c r="I12" s="51"/>
-      <c r="J12" s="33" t="s">
-        <v>532</v>
-      </c>
-      <c r="K12" s="34" t="s">
+      <c r="G13" s="37" t="s">
+        <v>534</v>
+      </c>
+      <c r="H13" s="30"/>
+      <c r="I13" s="58"/>
+      <c r="J13" s="35" t="s">
         <v>533</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="51"/>
-      <c r="B13" s="35" t="s">
+      <c r="K13" s="37" t="s">
         <v>534</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>535</v>
-      </c>
-      <c r="H13" s="30"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="35" t="s">
-        <v>534</v>
-      </c>
-      <c r="K13" s="37" t="s">
-        <v>535</v>
-      </c>
     </row>
     <row r="14" spans="1:11" ht="132.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="51"/>
+      <c r="A14" s="58"/>
       <c r="B14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="C14" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="D14" s="30"/>
-      <c r="E14" s="51"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="38" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="H14" s="30"/>
-      <c r="I14" s="51"/>
+      <c r="I14" s="58"/>
       <c r="J14" s="31" t="s">
         <v>28</v>
       </c>
       <c r="K14" s="38" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="58" t="s">
         <v>537</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="51" t="s">
-        <v>538</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>297</v>
@@ -4196,8 +4196,8 @@
         <v>298</v>
       </c>
       <c r="D15" s="30"/>
-      <c r="E15" s="51" t="s">
-        <v>538</v>
+      <c r="E15" s="58" t="s">
+        <v>537</v>
       </c>
       <c r="F15" s="28" t="s">
         <v>299</v>
@@ -4206,8 +4206,8 @@
         <v>29</v>
       </c>
       <c r="H15" s="30"/>
-      <c r="I15" s="51" t="s">
-        <v>538</v>
+      <c r="I15" s="58" t="s">
+        <v>537</v>
       </c>
       <c r="J15" s="28" t="s">
         <v>300</v>
@@ -4217,32 +4217,32 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="68.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="51"/>
+      <c r="A16" s="58"/>
       <c r="B16" s="33" t="s">
         <v>301</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D16" s="30"/>
-      <c r="E16" s="51"/>
+      <c r="E16" s="58"/>
       <c r="F16" s="33" t="s">
         <v>302</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="51"/>
+      <c r="I16" s="58"/>
       <c r="J16" s="33" t="s">
         <v>303</v>
       </c>
       <c r="K16" s="34" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="84" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="51"/>
+      <c r="A17" s="58"/>
       <c r="B17" s="35" t="s">
         <v>30</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>31</v>
       </c>
       <c r="D17" s="30"/>
-      <c r="E17" s="51"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="35" t="s">
         <v>30</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>32</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="51"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="35" t="s">
         <v>30</v>
       </c>
@@ -4267,23 +4267,23 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="36.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="51"/>
+      <c r="A18" s="58"/>
       <c r="B18" s="39" t="s">
+        <v>540</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>541</v>
       </c>
-      <c r="C18" s="34" t="s">
-        <v>542</v>
-      </c>
       <c r="D18" s="30"/>
-      <c r="E18" s="51"/>
+      <c r="E18" s="58"/>
       <c r="F18" s="39" t="s">
         <v>34</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="H18" s="30"/>
-      <c r="I18" s="51"/>
+      <c r="I18" s="58"/>
       <c r="J18" s="39" t="s">
         <v>34</v>
       </c>
@@ -4292,53 +4292,53 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="51"/>
+      <c r="A19" s="58"/>
       <c r="B19" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="C19" s="36" t="s">
         <v>544</v>
       </c>
-      <c r="C19" s="36" t="s">
+      <c r="D19" s="30"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="G19" s="36" t="s">
+        <v>544</v>
+      </c>
+      <c r="H19" s="30"/>
+      <c r="I19" s="58"/>
+      <c r="J19" s="35" t="s">
+        <v>543</v>
+      </c>
+      <c r="K19" s="36" t="s">
         <v>545</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>545</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="35" t="s">
-        <v>544</v>
-      </c>
-      <c r="K19" s="36" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="58"/>
+      <c r="B20" s="31" t="s">
         <v>546</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="51"/>
-      <c r="B20" s="31" t="s">
+      <c r="C20" s="32" t="s">
         <v>547</v>
       </c>
-      <c r="C20" s="32" t="s">
+      <c r="D20" s="30"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="31" t="s">
+        <v>546</v>
+      </c>
+      <c r="G20" s="32" t="s">
         <v>548</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="31" t="s">
-        <v>547</v>
-      </c>
-      <c r="G20" s="32" t="s">
-        <v>549</v>
-      </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="51"/>
+      <c r="I20" s="58"/>
       <c r="J20" s="31" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="K20" s="32" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -4431,18 +4431,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="I3:I4"/>
     <mergeCell ref="A5:A14"/>
     <mergeCell ref="E5:E14"/>
     <mergeCell ref="I5:I14"/>
     <mergeCell ref="A15:A20"/>
     <mergeCell ref="E15:E20"/>
     <mergeCell ref="I15:I20"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="I3:I4"/>
   </mergeCells>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -4476,31 +4476,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -5983,31 +5983,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="53" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="62" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="53"/>
-      <c r="E1" s="53"/>
-      <c r="F1" s="53"/>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="53"/>
-      <c r="J1" s="53"/>
-      <c r="K1" s="53"/>
-      <c r="L1" s="53"/>
-      <c r="M1" s="53" t="s">
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="53"/>
-      <c r="O1" s="53"/>
-      <c r="P1" s="53"/>
-      <c r="Q1" s="53"/>
-      <c r="R1" s="53"/>
-      <c r="S1" s="53"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62"/>
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
     </row>
     <row r="2" spans="1:21" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -6646,7 +6646,7 @@
         <v>110</v>
       </c>
       <c r="O12" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>73</v>
@@ -6705,7 +6705,7 @@
         <v>115</v>
       </c>
       <c r="O13" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>73</v>
@@ -6764,7 +6764,7 @@
         <v>120</v>
       </c>
       <c r="O14" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="P14" s="16" t="s">
         <v>73</v>
@@ -6823,7 +6823,7 @@
         <v>122</v>
       </c>
       <c r="O15" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="P15" s="16" t="s">
         <v>73</v>
@@ -6882,7 +6882,7 @@
         <v>124</v>
       </c>
       <c r="O16" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="P16" s="16" t="s">
         <v>73</v>
@@ -6941,7 +6941,7 @@
         <v>126</v>
       </c>
       <c r="O17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="P17" s="16" t="s">
         <v>73</v>
@@ -7000,7 +7000,7 @@
         <v>128</v>
       </c>
       <c r="O18" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P18" s="16" t="s">
         <v>73</v>
@@ -7059,7 +7059,7 @@
         <v>133</v>
       </c>
       <c r="O19" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="P19" s="16" t="s">
         <v>79</v>
@@ -7118,7 +7118,7 @@
         <v>136</v>
       </c>
       <c r="O20" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="P20" s="16" t="s">
         <v>73</v>
@@ -7177,7 +7177,7 @@
         <v>138</v>
       </c>
       <c r="O21" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>73</v>
@@ -7236,7 +7236,7 @@
         <v>141</v>
       </c>
       <c r="O22" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>73</v>
@@ -7437,31 +7437,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52"/>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52" t="s">
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="61"/>
+      <c r="J1" s="61"/>
+      <c r="K1" s="61"/>
+      <c r="L1" s="61"/>
+      <c r="M1" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="N1" s="52"/>
-      <c r="O1" s="52"/>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="52"/>
+      <c r="N1" s="61"/>
+      <c r="O1" s="61"/>
+      <c r="P1" s="61"/>
+      <c r="Q1" s="61"/>
+      <c r="R1" s="61"/>
+      <c r="S1" s="61"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
@@ -7859,7 +7859,7 @@
         <v>179</v>
       </c>
       <c r="O8" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P8" s="16" t="s">
         <v>180</v>
@@ -7918,7 +7918,7 @@
         <v>182</v>
       </c>
       <c r="O9" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="P9" s="16" t="s">
         <v>84</v>
@@ -7977,7 +7977,7 @@
         <v>183</v>
       </c>
       <c r="O10" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="P10" s="16" t="s">
         <v>73</v>
@@ -8036,7 +8036,7 @@
         <v>187</v>
       </c>
       <c r="O11" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="P11" s="16" t="s">
         <v>73</v>
@@ -8048,7 +8048,7 @@
         <v>112</v>
       </c>
       <c r="S11" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -8095,7 +8095,7 @@
         <v>189</v>
       </c>
       <c r="O12" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="P12" s="16" t="s">
         <v>73</v>
@@ -8154,7 +8154,7 @@
         <v>196</v>
       </c>
       <c r="O13" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="P13" s="16" t="s">
         <v>73</v>
@@ -8567,16 +8567,16 @@
         <v>133</v>
       </c>
       <c r="O20" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="Q20" t="s">
         <v>204</v>
       </c>
       <c r="R20" s="16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="S20">
         <v>99</v>
@@ -8626,7 +8626,7 @@
         <v>136</v>
       </c>
       <c r="O21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="P21" s="16" t="s">
         <v>73</v>
@@ -8685,7 +8685,7 @@
         <v>138</v>
       </c>
       <c r="O22" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="P22" s="16" t="s">
         <v>73</v>
@@ -8744,7 +8744,7 @@
         <v>141</v>
       </c>
       <c r="O23" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P23" s="16" t="s">
         <v>73</v>
@@ -8943,11 +8943,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="63" t="s">
         <v>311</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
@@ -8961,7 +8961,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="55" t="s">
+      <c r="A3" s="64" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -8972,7 +8972,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="55"/>
+      <c r="A4" s="64"/>
       <c r="B4" s="6" t="s">
         <v>207</v>
       </c>
@@ -8981,7 +8981,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="56" t="s">
+      <c r="A5" s="65" t="s">
         <v>314</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -8992,7 +8992,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
+      <c r="A6" s="66"/>
       <c r="B6" s="8" t="s">
         <v>209</v>
       </c>
@@ -9001,7 +9001,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
+      <c r="A7" s="66"/>
       <c r="B7" s="10" t="s">
         <v>210</v>
       </c>
@@ -9010,7 +9010,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
+      <c r="A8" s="66"/>
       <c r="B8" s="19" t="s">
         <v>318</v>
       </c>
@@ -9019,7 +9019,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="58"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="10" t="s">
         <v>320</v>
       </c>
@@ -9094,7 +9094,7 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="26" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="13"/>
@@ -9105,28 +9105,28 @@
       <c r="C23" s="13"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="68" t="s">
-        <v>563</v>
+      <c r="A24" s="57" t="s">
+        <v>562</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="13"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="68" t="s">
-        <v>564</v>
+      <c r="A25" s="57" t="s">
+        <v>563</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="13"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="68" t="s">
-        <v>565</v>
+      <c r="A26" s="57" t="s">
+        <v>564</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="13"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="57" t="s">
         <v>193</v>
       </c>
       <c r="B27" s="24"/>
@@ -10780,16 +10780,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="52"/>
-      <c r="C1" s="52" t="s">
+      <c r="B1" s="61"/>
+      <c r="C1" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="52"/>
-      <c r="E1" s="52"/>
-      <c r="F1" s="52"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -13124,7 +13124,7 @@
         <v>401</v>
       </c>
       <c r="E98" s="16" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="F98" s="47" t="s">
         <v>57</v>
@@ -13269,7 +13269,7 @@
         <v>282</v>
       </c>
       <c r="E104" s="48" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="F104" s="47" t="s">
         <v>57</v>
@@ -13386,10 +13386,10 @@
         <v>338</v>
       </c>
       <c r="D109" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E109" s="48" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="F109" s="47" t="s">
         <v>57</v>
@@ -13398,7 +13398,7 @@
         <v>486</v>
       </c>
       <c r="H109" s="16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -13659,7 +13659,7 @@
         <v>371</v>
       </c>
       <c r="E120" s="48" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="F120" s="47" t="s">
         <v>57</v>
@@ -14043,7 +14043,7 @@
         <v>294</v>
       </c>
       <c r="E135" s="48" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="F135" s="47" t="s">
         <v>292</v>
@@ -14262,7 +14262,7 @@
         <v>338</v>
       </c>
       <c r="D144" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E144" t="s">
         <v>497</v>
@@ -14605,7 +14605,7 @@
         <v>338</v>
       </c>
       <c r="D159" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E159" t="s">
         <v>498</v>
@@ -14948,7 +14948,7 @@
         <v>338</v>
       </c>
       <c r="D174" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E174" t="s">
         <v>499</v>
@@ -15291,7 +15291,7 @@
         <v>338</v>
       </c>
       <c r="D189" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E189" t="s">
         <v>500</v>
@@ -15634,7 +15634,7 @@
         <v>338</v>
       </c>
       <c r="D204" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="E204" t="s">
         <v>501</v>
@@ -15979,7 +15979,7 @@
         <v>338</v>
       </c>
       <c r="D219" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E219" t="s">
         <v>502</v>
@@ -16276,10 +16276,10 @@
         <v>338</v>
       </c>
       <c r="D232" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E232" t="s">
-        <v>503</v>
+        <v>565</v>
       </c>
       <c r="F232" s="17" t="s">
         <v>57</v>
@@ -16297,10 +16297,10 @@
         <v>30</v>
       </c>
       <c r="D233" s="46" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E233" s="46" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="F233" s="17" t="s">
         <v>57</v>
@@ -16389,10 +16389,10 @@
         <v>338</v>
       </c>
       <c r="D237" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="E237" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F237" s="17" t="s">
         <v>57</v>
@@ -16740,10 +16740,10 @@
         <v>338</v>
       </c>
       <c r="D252" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E252" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F252" s="17" t="s">
         <v>57</v>
@@ -17085,10 +17085,10 @@
         <v>338</v>
       </c>
       <c r="D267" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E267" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F267" s="17" t="s">
         <v>57</v>
@@ -17399,175 +17399,175 @@
     <col min="1" max="1" width="18.140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.85546875" style="27" customWidth="1"/>
     <col min="3" max="3" width="29.7109375" style="27" customWidth="1"/>
-    <col min="4" max="4" width="91.42578125" style="66" customWidth="1"/>
-    <col min="5" max="5" width="84.28515625" style="66" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="67" customWidth="1"/>
+    <col min="4" max="4" width="91.42578125" style="55" customWidth="1"/>
+    <col min="5" max="5" width="84.28515625" style="55" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="56" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" style="27" customWidth="1"/>
     <col min="8" max="16384" width="8.42578125" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="68" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68" t="s">
         <v>205</v>
       </c>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="61"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="50"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="50" t="s">
         <v>206</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="50" t="s">
         <v>207</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="50" t="s">
         <v>208</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="F2" s="62" t="s">
+      <c r="F2" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="G2" s="62" t="s">
+      <c r="G2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="H2" s="63" t="s">
+      <c r="H2" s="52" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61" t="s">
+      <c r="A3" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C3" s="61" t="s">
+      <c r="C3" s="50" t="s">
         <v>339</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="51" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="62" t="s">
+      <c r="E3" s="51" t="s">
         <v>115</v>
       </c>
-      <c r="F3" s="62" t="s">
+      <c r="F3" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="G3" s="51" t="s">
+        <v>486</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="50" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>194</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>339</v>
+      </c>
+      <c r="D4" s="51" t="s">
+        <v>122</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G4" s="51" t="s">
         <v>486</v>
       </c>
-      <c r="H3" s="61" t="s">
+      <c r="H4" s="50" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="61" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B5" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C4" s="61" t="s">
-        <v>339</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="62" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="G4" s="62" t="s">
+      <c r="C5" s="50" t="s">
+        <v>363</v>
+      </c>
+      <c r="D5" s="51" t="s">
+        <v>386</v>
+      </c>
+      <c r="E5" s="51" t="s">
+        <v>383</v>
+      </c>
+      <c r="F5" s="51" t="s">
+        <v>559</v>
+      </c>
+      <c r="G5" s="53" t="s">
         <v>486</v>
       </c>
-      <c r="H4" s="61" t="s">
+      <c r="H5" s="50" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="61" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B6" s="50" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="61" t="s">
+      <c r="C6" s="50" t="s">
         <v>363</v>
       </c>
-      <c r="D5" s="62" t="s">
+      <c r="D6" s="51" t="s">
         <v>386</v>
       </c>
-      <c r="E5" s="62" t="s">
-        <v>383</v>
-      </c>
-      <c r="F5" s="62" t="s">
+      <c r="E6" s="51" t="s">
+        <v>385</v>
+      </c>
+      <c r="F6" s="51" t="s">
         <v>560</v>
       </c>
-      <c r="G5" s="64" t="s">
-        <v>486</v>
-      </c>
-      <c r="H5" s="61" t="s">
+      <c r="H6" s="50" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="61" t="s">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="50" t="s">
         <v>193</v>
       </c>
-      <c r="B6" s="61" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="D6" s="62" t="s">
-        <v>386</v>
-      </c>
-      <c r="E6" s="62" t="s">
-        <v>385</v>
-      </c>
-      <c r="F6" s="62" t="s">
-        <v>561</v>
-      </c>
-      <c r="H6" s="61" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="61" t="s">
-        <v>193</v>
-      </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="50" t="s">
         <v>194</v>
       </c>
       <c r="C7" s="27" t="s">
         <v>195</v>
       </c>
-      <c r="D7" s="65" t="s">
-        <v>562</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>562</v>
-      </c>
-      <c r="F7" s="62" t="s">
+      <c r="D7" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="E7" s="54" t="s">
+        <v>561</v>
+      </c>
+      <c r="F7" s="51" t="s">
         <v>295</v>
       </c>
-      <c r="H7" s="65" t="s">
-        <v>562</v>
+      <c r="H7" s="54" t="s">
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -17835,15 +17835,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="38934ba0-d0c8-4ff1-b39d-50890708cb62">
@@ -17852,6 +17843,15 @@
     <TaxCatchAll xmlns="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17875,14 +17875,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C89FF3F-0AD8-4BCA-83FC-63D20521545A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A1F38564-B044-49A8-AE7B-DD2E3281BA7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -17891,4 +17883,12 @@
     <ds:schemaRef ds:uri="ab06a5aa-8e31-4bdb-9b13-38c58a92ec8a"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C89FF3F-0AD8-4BCA-83FC-63D20521545A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>